--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800976.3681621391</v>
+        <v>798770.2747557006</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.035655494189</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27.20396732287377</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.03010001174249</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>161.4125322208643</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>132.9366448356758</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154856</v>
+        <v>65.95263903154851</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015515</v>
+        <v>57.8809963801551</v>
       </c>
       <c r="S3" t="n">
-        <v>108.4810367767664</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60.74770706414819</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.36018782739068</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>64.9576467518887</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2878914634775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>99.11970265916578</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>372.8946801856673</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.98569063694849</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>173.0541505493963</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>48.14014868329054</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>70.26858495612842</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>120.0784350110266</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.3640742663489</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>206.0945099662162</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873213</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>1.773982476024347</v>
+        <v>109.7811651255455</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>234.6606904957393</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.59657533957241</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951283</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>162.8178883110056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>135.8350498199973</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>95.30935834546588</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0.4424312885266843</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.20389322926661</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,16 +3007,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>205.5261888872233</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492329</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.248689218037</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880155</v>
+        <v>6.081513486880191</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213004</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
         <v>215.4997556728562</v>
@@ -3329,10 +3329,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>3.80962297251078</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729824</v>
+        <v>40.89820845892483</v>
       </c>
       <c r="H37" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379229</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V37" t="n">
         <v>216.6422270377822</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880148</v>
+        <v>6.081513486880176</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,7 +3661,7 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>28.84832416907923</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D40" t="n">
         <v>113.1200567321665</v>
@@ -3670,7 +3670,7 @@
         <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
@@ -3679,7 +3679,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400154</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3718,10 +3718,10 @@
         <v>250.7164219195671</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>193.9840925841468</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>190.2142391029913</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880191</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213007</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
@@ -3800,7 +3800,7 @@
         <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313681</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
@@ -3898,16 +3898,16 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G43" t="n">
         <v>130.5303919729824</v>
@@ -3916,7 +3916,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379233</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400156</v>
+        <v>53.43673638400154</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3955,16 +3955,16 @@
         <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377822</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>193.9840925841465</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.32915229875297</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880212</v>
+        <v>6.081513486880176</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.6923455021301</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535744</v>
@@ -4135,25 +4135,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400156</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>102.9675479016565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901234</v>
+        <v>118.0781619153403</v>
       </c>
       <c r="U46" t="n">
         <v>250.7164219195671</v>
@@ -4198,7 +4198,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
         <v>183.089237066049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1380.512390882555</v>
+        <v>1067.977598589554</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.512390882555</v>
+        <v>1040.498843717964</v>
       </c>
       <c r="D2" t="n">
-        <v>1022.246692275804</v>
+        <v>1040.498843717964</v>
       </c>
       <c r="E2" t="n">
-        <v>636.4584396775601</v>
+        <v>1040.498843717964</v>
       </c>
       <c r="F2" t="n">
-        <v>225.4725348879525</v>
+        <v>629.5129389283566</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>211.3007166942732</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>211.3007166942732</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501629</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="J2" t="n">
         <v>143.3613405244782</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293497</v>
+        <v>406.6417666293499</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024628</v>
+        <v>785.5410436024633</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782769</v>
+        <v>1223.74604078277</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.40965540086</v>
+        <v>1654.409655400861</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671743</v>
+        <v>2015.885456671745</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110676</v>
+        <v>2286.722307110677</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750814</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="R2" t="n">
-        <v>2412.887742750814</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.049518025877</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="T2" t="n">
-        <v>2231.049518025877</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="U2" t="n">
-        <v>1977.267859533387</v>
+        <v>2159.106084258326</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.204972189817</v>
+        <v>1828.043196914755</v>
       </c>
       <c r="W2" t="n">
-        <v>1646.204972189817</v>
+        <v>1828.043196914755</v>
       </c>
       <c r="X2" t="n">
-        <v>1646.204972189817</v>
+        <v>1454.577438653675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1646.204972189817</v>
+        <v>1454.577438653675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>744.0360340805595</v>
+        <v>692.9710606982828</v>
       </c>
       <c r="C3" t="n">
-        <v>569.5830047994325</v>
+        <v>558.6916214703275</v>
       </c>
       <c r="D3" t="n">
-        <v>420.6485951381813</v>
+        <v>558.6916214703275</v>
       </c>
       <c r="E3" t="n">
-        <v>261.4111401327258</v>
+        <v>399.454166464872</v>
       </c>
       <c r="F3" t="n">
-        <v>114.8765821596108</v>
+        <v>252.919608491757</v>
       </c>
       <c r="G3" t="n">
         <v>114.8765821596108</v>
@@ -4404,16 +4404,16 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501629</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719583</v>
+        <v>111.2074192719584</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503518</v>
+        <v>345.4192653503521</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265948</v>
+        <v>721.7503922265953</v>
       </c>
       <c r="M3" t="n">
         <v>1212.890288538966</v>
@@ -4422,37 +4422,37 @@
         <v>1536.932332987185</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602209</v>
+        <v>1946.07411260221</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642318</v>
+        <v>2257.443393642319</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750814</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841567</v>
+        <v>2354.422089841568</v>
       </c>
       <c r="S3" t="n">
-        <v>2244.84528501655</v>
+        <v>2193.780311634273</v>
       </c>
       <c r="T3" t="n">
-        <v>2045.431003354851</v>
+        <v>1994.366029972575</v>
       </c>
       <c r="U3" t="n">
-        <v>1817.252635031058</v>
+        <v>1766.187661648782</v>
       </c>
       <c r="V3" t="n">
-        <v>1582.100526799316</v>
+        <v>1531.035553417039</v>
       </c>
       <c r="W3" t="n">
-        <v>1327.863170071114</v>
+        <v>1276.798196688838</v>
       </c>
       <c r="X3" t="n">
-        <v>1120.011669865581</v>
+        <v>1068.946696483305</v>
       </c>
       <c r="Y3" t="n">
-        <v>912.2513711006275</v>
+        <v>861.1863977183509</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501629</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501629</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501629</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501629</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461018</v>
+        <v>91.87143294461031</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384345</v>
+        <v>203.2083598384347</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534288</v>
+        <v>330.9866617534292</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692854</v>
+        <v>461.1612976692858</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984527</v>
+        <v>565.3823477984532</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978481</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978481</v>
+        <v>592.2931142257369</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978481</v>
+        <v>592.2931142257369</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978481</v>
+        <v>592.2931142257369</v>
       </c>
       <c r="T4" t="n">
-        <v>565.4269940999807</v>
+        <v>592.2931142257369</v>
       </c>
       <c r="U4" t="n">
-        <v>276.2473057530336</v>
+        <v>592.2931142257369</v>
       </c>
       <c r="V4" t="n">
-        <v>276.2473057530336</v>
+        <v>337.60862601985</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2473057530336</v>
+        <v>337.60862601985</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501629</v>
+        <v>109.6190751218327</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.7444956504007</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C5" t="n">
-        <v>764.7444956504007</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="D5" t="n">
-        <v>764.7444956504007</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7444956504007</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>757.7989949011973</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>675.4941957298054</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.7444020895362</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C8" t="n">
-        <v>885.7444020895362</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D8" t="n">
-        <v>527.4787034827857</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="E8" t="n">
-        <v>527.4787034827857</v>
+        <v>800.1749381992054</v>
       </c>
       <c r="F8" t="n">
-        <v>116.4927986931781</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>102.569394631769</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>102.569394631769</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>386.0450565669177</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>386.0450565669177</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>657.1506155638803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>657.1506155638803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>657.1506155638803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>657.1506155638803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>657.1506155638803</v>
+        <v>606.8376357104478</v>
       </c>
       <c r="X10" t="n">
-        <v>429.1610646658629</v>
+        <v>606.8376357104478</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.1610646658629</v>
+        <v>386.0450565669177</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>750.1800661608895</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814244</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644073</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.00145687072</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5142,10 +5142,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.8079542252653</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="C13" t="n">
-        <v>539.8079542252653</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D13" t="n">
-        <v>389.6913148129296</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305365</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305365</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305365</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,22 +5200,22 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104704</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799874</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593987</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570268</v>
+        <v>1334.714693807908</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570268</v>
+        <v>1106.725142909891</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.5797464134967</v>
+        <v>885.9325637663609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551629</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001594</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.866738172571</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5355,25 +5355,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.9164446247779</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C16" t="n">
-        <v>490.9164446247779</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>340.7998052124422</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.551564613769</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="U16" t="n">
-        <v>1665.448697739413</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="V16" t="n">
-        <v>1410.764209533526</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="W16" t="n">
-        <v>1121.347039496565</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X16" t="n">
-        <v>893.3574885985477</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y16" t="n">
-        <v>672.5649094550176</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5607,10 +5607,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>244.1098774754797</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454628</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474454</v>
+        <v>646.5509214492495</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039153</v>
+        <v>425.7583423057193</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
         <v>95.56103444839442</v>
@@ -5908,7 +5908,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570253</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X22" t="n">
-        <v>673.382774659008</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154778</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,19 +5987,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6066,7 +6066,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193594</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>633.9069394924946</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>633.9069394924946</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>633.9069394924946</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6181,16 +6181,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208124</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208124</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="X25" t="n">
-        <v>834.6410979753522</v>
+        <v>771.1140605227949</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.848518831822</v>
+        <v>633.9069394924946</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6230,22 +6230,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6315,13 +6315,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.7758834233816</v>
+        <v>559.5976972681535</v>
       </c>
       <c r="C28" t="n">
-        <v>488.8397004954747</v>
+        <v>559.5976972681535</v>
       </c>
       <c r="D28" t="n">
-        <v>338.723061083139</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>338.7230610831389</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>191.8331135852286</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6388,19 +6388,19 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1955.896565813262</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.129950382788</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.129950382788</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.206478295169</v>
+        <v>1479.445462176901</v>
       </c>
       <c r="W28" t="n">
-        <v>1288.206478295169</v>
+        <v>1190.028292139941</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.216927397151</v>
+        <v>962.0387412419234</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.4243482536214</v>
+        <v>741.2461620983933</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3851.47275672694</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6543,22 +6543,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.4972173763014</v>
+        <v>719.7238607267856</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>550.7876777988787</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>400.671038386543</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>252.7579448041499</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>105.8679973062395</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>105.8679973062395</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384227</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>874.5404723472665</v>
+        <v>901.3723255570253</v>
       </c>
       <c r="X31" t="n">
-        <v>666.9382613500712</v>
+        <v>901.3723255570253</v>
       </c>
       <c r="Y31" t="n">
-        <v>446.1456822065411</v>
+        <v>901.3723255570253</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143015</v>
@@ -6686,64 +6686,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172572</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871642</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318588</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736757</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783402</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413795</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433622</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998321</v>
+        <v>263.2638710736757</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398085</v>
@@ -6926,37 +6926,37 @@
         <v>731.6764154529683</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1225.723700597306</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M35" t="n">
-        <v>2044.464146207993</v>
+        <v>2005.334558653823</v>
       </c>
       <c r="N35" t="n">
-        <v>3024.216418434639</v>
+        <v>2959.157162760386</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313976</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671154</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426836</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983638</v>
@@ -6974,10 +6974,10 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
         <v>2463.00884922965</v>
@@ -7014,16 +7014,16 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702911</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N36" t="n">
         <v>1704.024331240074</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.2354894847515</v>
+        <v>768.1716476727534</v>
       </c>
       <c r="C37" t="n">
-        <v>503.1532624013353</v>
+        <v>635.0894205893371</v>
       </c>
       <c r="D37" t="n">
-        <v>503.1532624013353</v>
+        <v>520.8267370214921</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886981</v>
+        <v>408.7675992835897</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352785</v>
+        <v>297.7316076301699</v>
       </c>
       <c r="G37" t="n">
         <v>256.4202859544882</v>
@@ -7093,13 +7093,13 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7111,34 +7111,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S37" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T37" t="n">
-        <v>1884.746874406798</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="U37" t="n">
-        <v>1631.497963376932</v>
+        <v>1763.434121564935</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.667431015536</v>
+        <v>1544.603589203538</v>
       </c>
       <c r="W37" t="n">
-        <v>1159.104216823067</v>
+        <v>1291.040375011069</v>
       </c>
       <c r="X37" t="n">
-        <v>966.9686217695398</v>
+        <v>1098.904779957542</v>
       </c>
       <c r="Y37" t="n">
-        <v>782.0299984705005</v>
+        <v>913.9661566585023</v>
       </c>
     </row>
     <row r="38">
@@ -7157,58 +7157,58 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529692</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>1095.593445794351</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L38" t="n">
-        <v>1546.62765904276</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M38" t="n">
-        <v>2080.159563714684</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N38" t="n">
-        <v>2626.938380773467</v>
+        <v>3016.620626633428</v>
       </c>
       <c r="O38" t="n">
-        <v>3129.910851652804</v>
+        <v>3519.593097512765</v>
       </c>
       <c r="P38" t="n">
-        <v>3843.26593909975</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
         <v>3154.906027777561</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.6170717285977</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C39" t="n">
-        <v>785.1640424474707</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862196</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E39" t="n">
-        <v>476.992177780764</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076491</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G39" t="n">
         <v>194.0945196402673</v>
@@ -7248,28 +7248,28 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
         <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506372</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N39" t="n">
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q39" t="n">
         <v>2583.126759780831</v>
@@ -7290,7 +7290,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X39" t="n">
         <v>1335.59270751362</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867704</v>
+        <v>858.7092067778617</v>
       </c>
       <c r="C40" t="n">
-        <v>553.1192667038621</v>
+        <v>725.6269796944455</v>
       </c>
       <c r="D40" t="n">
-        <v>438.856583136017</v>
+        <v>611.3642961266005</v>
       </c>
       <c r="E40" t="n">
-        <v>326.7974453981146</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="F40" t="n">
-        <v>326.7974453981146</v>
+        <v>388.2691667352785</v>
       </c>
       <c r="G40" t="n">
-        <v>194.9485646173243</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
         <v>755.6763338935368</v>
@@ -7348,7 +7348,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
@@ -7366,16 +7366,16 @@
         <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1381.577934116177</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425086</v>
+        <v>1381.577934116177</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715589</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725193</v>
+        <v>1004.503715763611</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.74266115184</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529692</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
         <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571338</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>1095.593445794351</v>
+        <v>614.8796301297568</v>
       </c>
       <c r="L41" t="n">
-        <v>1546.627659042759</v>
+        <v>1065.913843378165</v>
       </c>
       <c r="M41" t="n">
-        <v>2080.159563714683</v>
+        <v>2044.464146207994</v>
       </c>
       <c r="N41" t="n">
-        <v>2626.938380773466</v>
+        <v>3024.21641843464</v>
       </c>
       <c r="O41" t="n">
-        <v>3129.910851652803</v>
+        <v>3527.188889313977</v>
       </c>
       <c r="P41" t="n">
-        <v>3843.265939099748</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q41" t="n">
         <v>4170.249617426837</v>
@@ -7448,13 +7448,13 @@
         <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J42" t="n">
-        <v>178.2626031702911</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
         <v>2114.985610658128</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>747.6732151244422</v>
+        <v>858.7092067778618</v>
       </c>
       <c r="C43" t="n">
-        <v>614.590988041026</v>
+        <v>725.6269796944456</v>
       </c>
       <c r="D43" t="n">
-        <v>500.328304473181</v>
+        <v>611.3642961266006</v>
       </c>
       <c r="E43" t="n">
-        <v>388.2691667352786</v>
+        <v>499.3051583886983</v>
       </c>
       <c r="F43" t="n">
         <v>388.2691667352786</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H43" t="n">
         <v>146.0570550168367</v>
@@ -7567,13 +7567,13 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
-        <v>164.848428249794</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218557</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,7 +7585,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
@@ -7603,16 +7603,16 @@
         <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617555</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425085</v>
+        <v>1381.577934116177</v>
       </c>
       <c r="X43" t="n">
-        <v>912.992120371558</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.4677241101913</v>
+        <v>1004.503715763611</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529674</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424547</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J44" t="n">
         <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>964.0989216124506</v>
+        <v>774.6894873488975</v>
       </c>
       <c r="L44" t="n">
-        <v>1415.133134860859</v>
+        <v>1639.208303002252</v>
       </c>
       <c r="M44" t="n">
-        <v>1948.665039532784</v>
+        <v>2172.740207674176</v>
       </c>
       <c r="N44" t="n">
-        <v>2495.443856591566</v>
+        <v>2719.519024732958</v>
       </c>
       <c r="O44" t="n">
-        <v>2998.416327470903</v>
+        <v>3222.491495612295</v>
       </c>
       <c r="P44" t="n">
-        <v>3711.771414917848</v>
+        <v>3646.712159243596</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426836</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
@@ -7685,10 +7685,10 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
         <v>2463.00884922965</v>
@@ -7722,16 +7722,16 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J45" t="n">
         <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685619</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.0832922723655</v>
+        <v>858.7092067778617</v>
       </c>
       <c r="C46" t="n">
-        <v>501.0010651889492</v>
+        <v>725.6269796944455</v>
       </c>
       <c r="D46" t="n">
-        <v>501.0010651889492</v>
+        <v>611.3642961266005</v>
       </c>
       <c r="E46" t="n">
-        <v>388.9419274510468</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="F46" t="n">
-        <v>277.9059357976271</v>
+        <v>388.2691667352785</v>
       </c>
       <c r="G46" t="n">
-        <v>146.0570550168367</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H46" t="n">
         <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L46" t="n">
         <v>755.6763338935368</v>
@@ -7822,34 +7822,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923483</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S46" t="n">
-        <v>2068.507336780396</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="T46" t="n">
-        <v>1882.594677194413</v>
+        <v>2107.220591699909</v>
       </c>
       <c r="U46" t="n">
-        <v>1629.345766164547</v>
+        <v>1853.971680670043</v>
       </c>
       <c r="V46" t="n">
-        <v>1410.515233803151</v>
+        <v>1635.141148308647</v>
       </c>
       <c r="W46" t="n">
-        <v>1156.952019610681</v>
+        <v>1381.577934116177</v>
       </c>
       <c r="X46" t="n">
-        <v>964.8164245571538</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.8778012581145</v>
+        <v>1004.503715763611</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>133.253057640023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>351.4175304294038</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>226.768859619312</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>420.2833968404726</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>124.0833809162815</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>96.13798426930839</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>272.8828616575889</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>14.45386895940737</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.999017557014</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>29.61882225792191</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>288.0894352916793</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>411.1553404523037</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>7.672516970919958</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.49223896101543</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>7.672516970921492</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.49223896101685</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>191.3226608722758</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>29.74373462032617</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.46790591558837</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>80.42848837037482</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314391</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.7749668001449</v>
+        <v>109.7677841506237</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>20.18346650181346</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>51.55114770987354</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.2354048423649</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>62.89176707803153</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>82.74960353209752</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>70.71644991356234</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.3265940429152</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>134.5511216850542</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>20.18346650181388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.074288727014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.335964134057775</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>107.1289233880126</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>89.6321835140576</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400151</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>102.9030806435028</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>22.65813445363541</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.04348946639873</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.760084767296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400153</v>
       </c>
       <c r="S46" t="n">
-        <v>51.30606114373961</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.97537107478313</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="F2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="G2" t="n">
         <v>416935.8762313324</v>
-      </c>
-      <c r="F2" t="n">
-        <v>416935.8762313322</v>
-      </c>
-      <c r="G2" t="n">
-        <v>416935.8762313325</v>
       </c>
       <c r="H2" t="n">
         <v>416935.8762313324</v>
@@ -26338,19 +26338,19 @@
         <v>416935.8762313323</v>
       </c>
       <c r="K2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="M2" t="n">
         <v>427598.4891507961</v>
       </c>
       <c r="N2" t="n">
+        <v>427598.4891507961</v>
+      </c>
+      <c r="O2" t="n">
         <v>427598.4891507963</v>
-      </c>
-      <c r="O2" t="n">
-        <v>427598.4891507961</v>
       </c>
       <c r="P2" t="n">
         <v>427598.4891507961</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394272</v>
+        <v>507203.1428394278</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417997</v>
+        <v>78665.28217417942</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934072</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410735</v>
+        <v>157829.4001410736</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022159</v>
+        <v>18289.94367022147</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881749</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240792.6346638842</v>
+        <v>240792.6346638841</v>
       </c>
       <c r="C4" t="n">
+        <v>218780.324998335</v>
+      </c>
+      <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
-      <c r="D4" t="n">
-        <v>218780.324998335</v>
-      </c>
       <c r="E4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="F4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="G4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="G4" t="n">
-        <v>32032.95503079769</v>
-      </c>
       <c r="H4" t="n">
+        <v>32032.95503079766</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="L4" t="n">
         <v>32032.95503079772</v>
       </c>
-      <c r="I4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32032.95503079773</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.9550307977</v>
-      </c>
       <c r="M4" t="n">
-        <v>58108.37327003365</v>
+        <v>58108.3732700336</v>
       </c>
       <c r="N4" t="n">
         <v>58108.37327003361</v>
       </c>
       <c r="O4" t="n">
+        <v>58108.3732700336</v>
+      </c>
+      <c r="P4" t="n">
         <v>58108.37327003363</v>
-      </c>
-      <c r="P4" t="n">
-        <v>58108.37327003357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133435</v>
+        <v>77204.6887113344</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>91026.04982123678</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
         <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394153.537035897</v>
+        <v>-394153.5370358975</v>
       </c>
       <c r="C6" t="n">
-        <v>50742.24394282431</v>
+        <v>50742.24394282469</v>
       </c>
       <c r="D6" t="n">
-        <v>129407.5261170043</v>
+        <v>129407.5261170041</v>
       </c>
       <c r="E6" t="n">
-        <v>-438858.011046586</v>
+        <v>-438925.2065368117</v>
       </c>
       <c r="F6" t="n">
-        <v>288519.4029468214</v>
+        <v>288452.2074565954</v>
       </c>
       <c r="G6" t="n">
-        <v>288519.4029468212</v>
+        <v>288452.2074565953</v>
       </c>
       <c r="H6" t="n">
-        <v>288519.4029468211</v>
+        <v>288452.2074565953</v>
       </c>
       <c r="I6" t="n">
-        <v>288519.4029468211</v>
+        <v>288452.2074565953</v>
       </c>
       <c r="J6" t="n">
-        <v>130690.0028057474</v>
+        <v>130622.8073155215</v>
       </c>
       <c r="K6" t="n">
-        <v>270229.4592765995</v>
+        <v>270162.2637863737</v>
       </c>
       <c r="L6" t="n">
-        <v>288519.4029468211</v>
+        <v>288452.2074565951</v>
       </c>
       <c r="M6" t="n">
-        <v>154615.2748713506</v>
+        <v>154598.8537283606</v>
       </c>
       <c r="N6" t="n">
-        <v>278464.0660595258</v>
+        <v>278447.6449165355</v>
       </c>
       <c r="O6" t="n">
-        <v>278464.0660595257</v>
+        <v>278447.6449165356</v>
       </c>
       <c r="P6" t="n">
-        <v>278464.0660595257</v>
+        <v>278447.6449165355</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N2" t="n">
         <v>35.4954162860458</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688983</v>
+        <v>316.5685789688987</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877035</v>
+        <v>603.221935687704</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688983</v>
+        <v>316.5685789688987</v>
       </c>
       <c r="C3" t="n">
-        <v>61.1750852481884</v>
+        <v>61.17508524818794</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.705104075572886e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877035</v>
+        <v>603.221935687704</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685208</v>
+        <v>71.06533706685161</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877035</v>
+        <v>603.221935687704</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685208</v>
+        <v>71.06533706685161</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.029398241354</v>
+        <v>383.0293982413538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877035</v>
+        <v>603.221935687704</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685208</v>
+        <v>71.06533706685161</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.6981861692915</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>338.0689244481338</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.4414032841481</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866703</v>
+        <v>69.92680236866693</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776874</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930304</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.77185415263997</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>105.6591799828218</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>50.55432364845556</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>106.6724109223995</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255603</v>
+        <v>52.99928112255598</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739075</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>151.6253882365109</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>214.0680412192119</v>
       </c>
       <c r="T4" t="n">
-        <v>160.5488077236816</v>
+        <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>255.5633389615172</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>40.88948983512773</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.5373076996425</v>
+        <v>69.82361682150341</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>233.8218951923152</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>103.7911675615707</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>141.8769539938905</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>166.4445633255644</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.744915819785092e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78911708543698e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604582</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604493</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604579</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392555</v>
+        <v>1.272637503392557</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161901</v>
+        <v>13.03339883161902</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954153</v>
+        <v>49.06335734954158</v>
       </c>
       <c r="J2" t="n">
-        <v>108.013517303564</v>
+        <v>108.0135173035641</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221709</v>
+        <v>161.8842628221711</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166208</v>
+        <v>200.831742816621</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175781</v>
+        <v>223.4640100175784</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240922</v>
+        <v>227.0798913240925</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497325</v>
+        <v>214.4251021497328</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847288</v>
+        <v>183.006863784729</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944829</v>
+        <v>137.430533194483</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248266</v>
+        <v>79.94231557248276</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855788</v>
+        <v>29.00022710855791</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100913</v>
+        <v>5.57097067110092</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714044</v>
+        <v>0.1018110002714045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859322</v>
+        <v>0.6809210943859331</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674662</v>
+        <v>6.57626425367467</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986653</v>
+        <v>23.44399381986656</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933056</v>
+        <v>64.33211093933065</v>
       </c>
       <c r="K3" t="n">
-        <v>109.953824263188</v>
+        <v>109.9538242631882</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665595</v>
+        <v>147.8464858665597</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380495</v>
+        <v>172.5298755380498</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648745</v>
+        <v>177.0962279648748</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313757</v>
+        <v>162.0084500313759</v>
       </c>
       <c r="P3" t="n">
-        <v>130.026064067433</v>
+        <v>130.0260640674331</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915866</v>
+        <v>86.91898039915876</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248798</v>
+        <v>42.27683777248804</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861588</v>
+        <v>12.6478106786159</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739787</v>
+        <v>2.74458984973979</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012714</v>
+        <v>0.04479744042012719</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.570861371911128</v>
+        <v>0.5708613719111287</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173487</v>
+        <v>5.075476561173494</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801829</v>
+        <v>17.16735834801831</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411675</v>
+        <v>40.3598989941168</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840194</v>
+        <v>66.32371211840203</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667809</v>
+        <v>84.87151705667819</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148708</v>
+        <v>89.4851148714872</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890931</v>
+        <v>87.35735884890943</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952202</v>
+        <v>80.6886600952203</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823312</v>
+        <v>69.04308810823322</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430364</v>
+        <v>47.8018554243037</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065853</v>
+        <v>25.66800314065856</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760291</v>
+        <v>9.948556817760304</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711183</v>
+        <v>2.439134952711186</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333429</v>
+        <v>0.03113789301333433</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32327,13 +32327,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970259</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34448,13 +34448,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233484</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895144</v>
+        <v>96.06422794895158</v>
       </c>
       <c r="K2" t="n">
-        <v>265.939824348355</v>
+        <v>265.9398243483553</v>
       </c>
       <c r="L2" t="n">
-        <v>382.726542397084</v>
+        <v>382.7265423970842</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831379</v>
+        <v>442.6313102831382</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394855</v>
+        <v>435.0137521394857</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907911</v>
+        <v>365.1270719907914</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009419</v>
+        <v>273.5725762009421</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799381</v>
+        <v>127.4398339799382</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307271</v>
+        <v>63.58551961307279</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014076</v>
+        <v>236.5776223014078</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901445</v>
+        <v>380.1324513901448</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660312</v>
+        <v>496.1009053660314</v>
       </c>
       <c r="N3" t="n">
-        <v>327.3151964123422</v>
+        <v>327.3151964123425</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636608</v>
+        <v>413.274524863661</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930399</v>
+        <v>314.5144252930401</v>
       </c>
       <c r="Q3" t="n">
         <v>157.0144940489863</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251909</v>
+        <v>44.05422029251918</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169942</v>
+        <v>112.4615423169943</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333277</v>
+        <v>129.0689918333278</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281379</v>
+        <v>131.489531228138</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092599</v>
+        <v>105.27378800926</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312661</v>
+        <v>66.32164737312671</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>470.4443441954237</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230595</v>
+        <v>890.3386462596305</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>682.3589740116439</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>959.2045126706992</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35975,13 +35975,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>676.385216329193</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>648.4398196822196</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>728.4729760499208</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
@@ -36607,16 +36607,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>413.215855178779</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>588.589131949346</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>89.23202080014663</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>827.0105511219058</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>963.4571758652149</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597809</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911202</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L37" t="n">
         <v>355.2527884562439</v>
@@ -37476,13 +37476,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P37" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>406.4345031902916</v>
       </c>
       <c r="Q38" t="n">
-        <v>330.2865437647349</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
@@ -37710,16 +37710,16 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>344.8638035263219</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>330.2865437647363</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597807</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525815</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303653</v>
@@ -38017,10 +38017,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>528.5139474276762</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38032,13 +38032,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>428.5057208396978</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013301</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911196</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795296</v>
